--- a/data/cohorts/D1Namo/D1Namo.xlsx
+++ b/data/cohorts/D1Namo/D1Namo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komalgilani/Desktop/cmh/data/cohorts/D1Namo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B9C93-AD99-AD4B-9A7D-DB2B9F36C909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F84F631-6756-094B-BBC1-58BFCE828FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16840" yWindow="-28300" windowWidth="68800" windowHeight="27100" xr2:uid="{9B2F396A-084C-2E41-B480-6996B6531DDC}"/>
   </bookViews>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87228FD1-DDA7-6A4F-8659-DCA1D5CACA11}">
   <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1252,7 +1252,7 @@
         <v>8541</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="19">
+    <row r="5" spans="1:32" ht="35">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>4237720</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="19">
+    <row r="7" spans="1:32" ht="35">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>1014761</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="19">
+    <row r="8" spans="1:32" ht="35">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>9593</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="19">
+    <row r="22" spans="1:29" ht="35">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>9313</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="19">
+    <row r="23" spans="1:29" ht="35">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>9313</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="19">
+    <row r="24" spans="1:29" ht="35">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>9313</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="19">
+    <row r="25" spans="1:29" ht="35">
       <c r="A25" s="2" t="s">
         <v>83</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="19">
+    <row r="27" spans="1:29" ht="35">
       <c r="A27" s="2" t="s">
         <v>88</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="19">
+    <row r="29" spans="1:29" ht="35">
       <c r="A29" s="2" t="s">
         <v>93</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>1027888</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="19">
+    <row r="30" spans="1:29" ht="35">
       <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
